--- a/public/template_limbah_diolah.xlsx
+++ b/public/template_limbah_diolah.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7dce65a74b2193f6/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\wastelog\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60640DD-8C08-4B25-B7AB-177757273E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1FBFA8-90C6-4944-AD80-E405F3E7B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6156" yWindow="1596" windowWidth="17280" windowHeight="8880" xr2:uid="{9FC27130-1343-46F0-97BE-06A33F5B72C0}"/>
+    <workbookView xWindow="3396" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{9FC27130-1343-46F0-97BE-06A33F5B72C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Total (Kg)</t>
+  </si>
+  <si>
+    <t>Kode LImbah</t>
   </si>
 </sst>
 </file>
@@ -86,11 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,22 +409,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E86258F-22E4-4ED4-B6E6-A9BCAA6D1A5D}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
